--- a/planning/MitoSplit-Net_project_master.xlsx
+++ b/planning/MitoSplit-Net_project_master.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Escritorio\TODO\LEB\Presentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snrodrig\Documents\GitHub\MitoSplit-Net\planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92227E39-0A22-4DCD-B770-BBAC4EAB6BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="07.12.2020 copy" sheetId="2" r:id="rId1"/>
     <sheet name="18.02.2020 copy" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -354,16 +353,16 @@
     <t>Expand training dataset by applying a set of transformations to both input and output data. The latter data is adapted with the same protocol as in the GT preprocessing stage.</t>
   </si>
   <si>
-    <t>Detect irrelevant frames based on their mean probability of including events of interest. This temporal signal is smoothed using a median filter, so that noise in the GT is removed, wich allows to obtain clear binary signal.</t>
-  </si>
-  <si>
     <t>Characterize performance and optimize network parameters</t>
+  </si>
+  <si>
+    <t>Detect irrelevant frames based on their mean probability of including events of interest. This temporal signal is smoothed by using a median filter, so that noise in the GT is removed, which allows obtaining a clear binary signal.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,6 +566,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,9 +577,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,12 +891,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27BF6AF3-4CE5-4988-8C90-7812B133E013}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="36.88671875" style="1" customWidth="1"/>
@@ -997,7 +996,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1015,7 +1014,7 @@
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1029,7 +1028,7 @@
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
@@ -1043,7 +1042,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="13" t="s">
         <v>33</v>
       </c>
@@ -1057,7 +1056,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -1073,7 +1072,7 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
@@ -1087,7 +1086,7 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1103,7 +1102,7 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1121,7 +1120,7 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="10" t="s">
         <v>48</v>
       </c>
@@ -1137,7 +1136,7 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
@@ -1151,7 +1150,7 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="10" t="s">
         <v>53</v>
       </c>
@@ -1167,7 +1166,7 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="10" t="s">
         <v>56</v>
       </c>
@@ -1181,7 +1180,7 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -1199,7 +1198,7 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="16" t="s">
         <v>61</v>
       </c>
@@ -1217,7 +1216,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -1233,7 +1232,7 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="10" t="s">
         <v>69</v>
       </c>
@@ -1247,7 +1246,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="13" t="s">
         <v>71</v>
       </c>
@@ -1263,7 +1262,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="13" t="s">
         <v>74</v>
       </c>
@@ -1277,7 +1276,7 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="13" t="s">
         <v>77</v>
       </c>
@@ -1291,7 +1290,7 @@
       <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -1309,7 +1308,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="16" t="s">
         <v>66</v>
       </c>
@@ -1325,7 +1324,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="16" t="s">
         <v>69</v>
       </c>
@@ -1341,7 +1340,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="16" t="s">
         <v>74</v>
       </c>
@@ -1355,7 +1354,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -1373,7 +1372,7 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="16" t="s">
         <v>93</v>
       </c>
@@ -1387,7 +1386,7 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="16" t="s">
         <v>96</v>
       </c>
@@ -1415,14 +1414,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E1C15A-9135-41AD-B5BF-AB7132CE4745}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B12" zoomScale="81" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="40.44140625" style="1" bestFit="1" customWidth="1"/>
@@ -1507,7 +1506,7 @@
       </c>
     </row>
     <row r="14" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -1521,7 +1520,7 @@
       <c r="G14" s="17"/>
     </row>
     <row r="15" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="10" t="s">
         <v>28</v>
       </c>
@@ -1533,7 +1532,7 @@
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1545,7 +1544,7 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="10" t="s">
         <v>33</v>
       </c>
@@ -1557,7 +1556,7 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="28" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -1573,7 +1572,7 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="10" t="s">
         <v>48</v>
       </c>
@@ -1587,7 +1586,7 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
+      <c r="B20" s="29"/>
       <c r="C20" s="10" t="s">
         <v>51</v>
       </c>
@@ -1601,7 +1600,7 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="10" t="s">
         <v>105</v>
       </c>
@@ -1615,7 +1614,7 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="10" t="s">
         <v>106</v>
       </c>
@@ -1629,7 +1628,7 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="2:7" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="13" t="s">
         <v>107</v>
       </c>
@@ -1638,12 +1637,12 @@
         <v>103</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="10" t="s">
         <v>53</v>
       </c>
@@ -1659,9 +1658,9 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29" t="s">
-        <v>111</v>
+      <c r="B25" s="29"/>
+      <c r="C25" s="26" t="s">
+        <v>110</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>102</v>
@@ -1675,7 +1674,7 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="2:7" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C26" s="23" t="s">
@@ -1687,7 +1686,7 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="16" t="s">
         <v>93</v>
       </c>
@@ -1697,7 +1696,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="2:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="16" t="s">
         <v>96</v>
       </c>
@@ -1730,14 +1729,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G37"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="36.88671875" style="1" customWidth="1"/>
@@ -1837,7 +1836,7 @@
       </c>
     </row>
     <row r="12" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -1855,7 +1854,7 @@
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="10" t="s">
         <v>28</v>
       </c>
@@ -1869,7 +1868,7 @@
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="13" t="s">
         <v>31</v>
       </c>
@@ -1883,7 +1882,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="13" t="s">
         <v>33</v>
       </c>
@@ -1897,7 +1896,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -1913,7 +1912,7 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="10" t="s">
         <v>39</v>
       </c>
@@ -1927,7 +1926,7 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1943,7 +1942,7 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="27" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -1961,7 +1960,7 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="10" t="s">
         <v>48</v>
       </c>
@@ -1977,7 +1976,7 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B21" s="26"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="10" t="s">
         <v>51</v>
       </c>
@@ -1991,7 +1990,7 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="10" t="s">
         <v>53</v>
       </c>
@@ -2007,7 +2006,7 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B23" s="26"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="10" t="s">
         <v>56</v>
       </c>
@@ -2021,7 +2020,7 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B24" s="26" t="s">
+      <c r="B24" s="27" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -2039,7 +2038,7 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="2:7" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="B25" s="26"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="16" t="s">
         <v>61</v>
       </c>
@@ -2057,7 +2056,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="13" t="s">
@@ -2073,7 +2072,7 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="26"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="10" t="s">
         <v>69</v>
       </c>
@@ -2087,7 +2086,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B28" s="26"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="13" t="s">
         <v>71</v>
       </c>
@@ -2103,7 +2102,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="26"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="13" t="s">
         <v>74</v>
       </c>
@@ -2117,7 +2116,7 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B30" s="26"/>
+      <c r="B30" s="27"/>
       <c r="C30" s="13" t="s">
         <v>77</v>
       </c>
@@ -2131,7 +2130,7 @@
       <c r="G30" s="18"/>
     </row>
     <row r="31" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="16" t="s">
@@ -2149,7 +2148,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="26"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="16" t="s">
         <v>66</v>
       </c>
@@ -2165,7 +2164,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B33" s="26"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="16" t="s">
         <v>69</v>
       </c>
@@ -2181,7 +2180,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="26"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="16" t="s">
         <v>74</v>
       </c>
@@ -2197,7 +2196,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="27" t="s">
         <v>89</v>
       </c>
       <c r="C35" s="16" t="s">
@@ -2215,7 +2214,7 @@
       <c r="G35" s="14"/>
     </row>
     <row r="36" spans="2:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="B36" s="26"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="16" t="s">
         <v>93</v>
       </c>
@@ -2229,7 +2228,7 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="26"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="16" t="s">
         <v>96</v>
       </c>
@@ -2266,6 +2265,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DB8E6D30894374A8165A6943BE15EB1" ma:contentTypeVersion="4" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="acce8ac151fa2b2b98613c78c057c0f6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1d9b8e16-1395-497c-b141-eb98807ef9cc" xmlns:ns3="3e7660d5-6072-4ad7-8f1e-de95c5788a66" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f07e528fd3ed13cc31c32e1285466ee0" ns2:_="" ns3:_="">
     <xsd:import namespace="1d9b8e16-1395-497c-b141-eb98807ef9cc"/>
@@ -2430,12 +2435,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E953496-4C8F-47A3-A416-7713ACC68AD8}">
   <ds:schemaRefs>
@@ -2445,6 +2444,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB806418-93FE-4F95-9D59-7E246860175E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1d9b8e16-1395-497c-b141-eb98807ef9cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="3e7660d5-6072-4ad7-8f1e-de95c5788a66"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{000E9CDE-E89D-4576-9AC0-F0CF070F73F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2461,13 +2477,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB806418-93FE-4F95-9D59-7E246860175E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>